--- a/Domain Model.xlsx
+++ b/Domain Model.xlsx
@@ -7,17 +7,221 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Domain model" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+  <si>
+    <t xml:space="preserve">Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email address </t>
+  </si>
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennis Players </t>
+  </si>
+  <si>
+    <t>Rafael Nadal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain </t>
+  </si>
+  <si>
+    <t>Turned pro</t>
+  </si>
+  <si>
+    <t>Prize money</t>
+  </si>
+  <si>
+    <t>$71M</t>
+  </si>
+  <si>
+    <t>Singles record</t>
+  </si>
+  <si>
+    <t>706-140</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country </t>
+  </si>
+  <si>
+    <t>Novak Djokovic</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>$72M</t>
+  </si>
+  <si>
+    <t>606-141</t>
+  </si>
+  <si>
+    <t>Roger Federer</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>$89M</t>
+  </si>
+  <si>
+    <t>1000-227</t>
+  </si>
+  <si>
+    <t>Stanislas Wawrinka</t>
+  </si>
+  <si>
+    <t>Marin Cilic</t>
+  </si>
+  <si>
+    <t>$14M</t>
+  </si>
+  <si>
+    <t>337-215</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>$11M</t>
+  </si>
+  <si>
+    <t>307-167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Slam Tournaments </t>
+  </si>
+  <si>
+    <t>Australian Open</t>
+  </si>
+  <si>
+    <t>French Open</t>
+  </si>
+  <si>
+    <t>Wimbledon</t>
+  </si>
+  <si>
+    <t>US Open</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month </t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May </t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>First year held</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Hard court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grass </t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>2014 Champion (player_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashley </t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Whitney</t>
+  </si>
+  <si>
+    <t>ashley@kellogg.edu</t>
+  </si>
+  <si>
+    <t>fabio@kellogg.edu</t>
+  </si>
+  <si>
+    <t>whitney@kellogg.edu</t>
+  </si>
+  <si>
+    <t>Favorite player (player_id)</t>
+  </si>
+  <si>
+    <t>Grand slam won in 2014 (slam_id)</t>
+  </si>
+  <si>
+    <t>lob</t>
+  </si>
+  <si>
+    <t>volley</t>
+  </si>
+  <si>
+    <t>overhead</t>
+  </si>
+  <si>
+    <t>ajel5</t>
+  </si>
+  <si>
+    <t>fabster13</t>
+  </si>
+  <si>
+    <t>whit11</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +229,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -42,14 +268,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,36 +820,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1998</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8">
+        <v>26</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1905</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1891</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1877</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1881</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Domain Model.xlsx
+++ b/Domain Model.xlsx
@@ -14,25 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
-  <si>
-    <t xml:space="preserve">Users </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email address </t>
-  </si>
-  <si>
-    <t>User name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tennis Players </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Rafael Nadal</t>
   </si>
@@ -40,33 +22,12 @@
     <t xml:space="preserve">Spain </t>
   </si>
   <si>
-    <t>Turned pro</t>
-  </si>
-  <si>
-    <t>Prize money</t>
-  </si>
-  <si>
     <t>$71M</t>
   </si>
   <si>
-    <t>Singles record</t>
-  </si>
-  <si>
     <t>706-140</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country </t>
-  </si>
-  <si>
     <t>Novak Djokovic</t>
   </si>
   <si>
@@ -112,9 +73,6 @@
     <t>307-167</t>
   </si>
   <si>
-    <t xml:space="preserve">Grand Slam Tournaments </t>
-  </si>
-  <si>
     <t>Australian Open</t>
   </si>
   <si>
@@ -127,9 +85,6 @@
     <t>US Open</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Melbourne</t>
   </si>
   <si>
@@ -142,9 +97,6 @@
     <t>New York City</t>
   </si>
   <si>
-    <t xml:space="preserve">Month </t>
-  </si>
-  <si>
     <t>January</t>
   </si>
   <si>
@@ -157,12 +109,6 @@
     <t>August</t>
   </si>
   <si>
-    <t>First year held</t>
-  </si>
-  <si>
-    <t>Surface</t>
-  </si>
-  <si>
     <t>Hard court</t>
   </si>
   <si>
@@ -172,9 +118,6 @@
     <t>Clay</t>
   </si>
   <si>
-    <t>2014 Champion (player_id)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ashley </t>
   </si>
   <si>
@@ -193,12 +136,6 @@
     <t>whitney@kellogg.edu</t>
   </si>
   <si>
-    <t>Favorite player (player_id)</t>
-  </si>
-  <si>
-    <t>Grand slam won in 2014 (slam_id)</t>
-  </si>
-  <si>
     <t>lob</t>
   </si>
   <si>
@@ -215,6 +152,63 @@
   </si>
   <si>
     <t>whit11</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>players</t>
+  </si>
+  <si>
+    <t>grandslams</t>
+  </si>
+  <si>
+    <t>id (integer)</t>
+  </si>
+  <si>
+    <t>name (string)</t>
+  </si>
+  <si>
+    <t>turned_pro (integer)</t>
+  </si>
+  <si>
+    <t>email_address (string)</t>
+  </si>
+  <si>
+    <t>user_name (string)</t>
+  </si>
+  <si>
+    <t>password (string)</t>
+  </si>
+  <si>
+    <t>age (integer)</t>
+  </si>
+  <si>
+    <t>country (string)</t>
+  </si>
+  <si>
+    <t>prize_money (string)</t>
+  </si>
+  <si>
+    <t>singles_record (string)</t>
+  </si>
+  <si>
+    <t>location (string)</t>
+  </si>
+  <si>
+    <t>month (string)</t>
+  </si>
+  <si>
+    <t>first_yr_held (integer)</t>
+  </si>
+  <si>
+    <t>surface (string)</t>
+  </si>
+  <si>
+    <t>player_id (integer)</t>
+  </si>
+  <si>
+    <t>grandslam_id (integer)</t>
   </si>
 </sst>
 </file>
@@ -260,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -321,7 +315,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -339,7 +333,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -351,13 +345,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -375,7 +384,22 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -390,7 +414,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -402,10 +426,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -417,10 +439,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -432,43 +452,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -476,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,7 +474,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,22 +489,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -823,400 +815,412 @@
   <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>60</v>
+      <c r="B9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>2001</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="6">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
         <v>2003</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="6">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1">
         <v>1998</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1">
         <v>2002</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="6">
+        <v>15</v>
+      </c>
+      <c r="I13" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>5</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7">
         <v>26</v>
       </c>
-      <c r="D14" s="8">
-        <v>26</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7">
         <v>2004</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="B16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>52</v>
+      <c r="B17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1">
         <v>1905</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="6">
+        <v>31</v>
+      </c>
+      <c r="H18" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1">
         <v>1891</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="6">
+        <v>33</v>
+      </c>
+      <c r="H19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1">
         <v>1877</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="6">
+        <v>32</v>
+      </c>
+      <c r="H20" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1">
         <v>1881</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="6">
+        <v>31</v>
+      </c>
+      <c r="H21" s="5">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
